--- a/data/excel/精学vocabulary.xlsx
+++ b/data/excel/精学vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="11100"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
     <t>香港</t>
   </si>
   <si>
-    <t>everywhere</t>
-  </si>
-  <si>
-    <t>到处</t>
+    <t>favourite</t>
+  </si>
+  <si>
+    <t>最爱的</t>
   </si>
   <si>
     <t>ice cream</t>
@@ -415,10 +415,10 @@
     <t>总是</t>
   </si>
   <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>假日；度假期</t>
+    <t>celebration</t>
+  </si>
+  <si>
+    <t>庆祝活动</t>
   </si>
   <si>
     <t>which</t>
@@ -847,10 +847,10 @@
     <t>画画</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>绘画</t>
+    <t>NO fun!</t>
+  </si>
+  <si>
+    <t>不好玩！</t>
   </si>
   <si>
     <t>storybook</t>
@@ -865,10 +865,10 @@
     <t>游戏</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>猜测</t>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>集会</t>
   </si>
   <si>
     <t>can</t>
@@ -1108,10 +1108,10 @@
     <t>半小时</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>免费的；自由的</t>
+    <t>hurray</t>
+  </si>
+  <si>
+    <t>万岁（欢呼）</t>
   </si>
   <si>
     <t>coupon</t>
@@ -1135,18 +1135,6 @@
     <t>Lesson 14</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>购物</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>乐趣</t>
-  </si>
-  <si>
     <t>backpack</t>
   </si>
   <si>
@@ -1216,39 +1204,21 @@
     <t>许多</t>
   </si>
   <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>how much</t>
+  </si>
+  <si>
+    <t>多少钱</t>
+  </si>
+  <si>
     <t>Lesson 15</t>
   </si>
   <si>
-    <t>how much</t>
-  </si>
-  <si>
-    <t>多少钱</t>
-  </si>
-  <si>
-    <t>It's=It is</t>
-  </si>
-  <si>
-    <t>它是......</t>
-  </si>
-  <si>
-    <t>They're=They are</t>
-  </si>
-  <si>
-    <t>它（他/她）们是......</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>想要</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>卖</t>
-  </si>
-  <si>
     <t>Renminbi</t>
   </si>
   <si>
@@ -1273,30 +1243,60 @@
     <t>五十</t>
   </si>
   <si>
+    <t>fifty-one</t>
+  </si>
+  <si>
+    <t>五十一</t>
+  </si>
+  <si>
     <t>sixty</t>
   </si>
   <si>
     <t>六十</t>
   </si>
   <si>
+    <t>sixty-four</t>
+  </si>
+  <si>
+    <t>六十四</t>
+  </si>
+  <si>
     <t>seventy</t>
   </si>
   <si>
     <t>七十</t>
   </si>
   <si>
+    <t>seventy-three</t>
+  </si>
+  <si>
+    <t>七十三</t>
+  </si>
+  <si>
     <t>eighty</t>
   </si>
   <si>
     <t>八十</t>
   </si>
   <si>
+    <t>eighty-seven</t>
+  </si>
+  <si>
+    <t>八十七</t>
+  </si>
+  <si>
     <t>ninety</t>
   </si>
   <si>
     <t>九十</t>
   </si>
   <si>
+    <t>ninety-five</t>
+  </si>
+  <si>
+    <t>九十五</t>
+  </si>
+  <si>
     <t>a / one hundred</t>
   </si>
   <si>
@@ -1306,36 +1306,6 @@
     <t>Lesson 16</t>
   </si>
   <si>
-    <t>fifty-one</t>
-  </si>
-  <si>
-    <t>五十一</t>
-  </si>
-  <si>
-    <t>sixty-four</t>
-  </si>
-  <si>
-    <t>六十四</t>
-  </si>
-  <si>
-    <t>seventy-three</t>
-  </si>
-  <si>
-    <t>七十三</t>
-  </si>
-  <si>
-    <t>eighty-seven</t>
-  </si>
-  <si>
-    <t>八十七</t>
-  </si>
-  <si>
-    <t>ninety-five</t>
-  </si>
-  <si>
-    <t>九十五</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -1360,6 +1330,12 @@
     <t>长颈鹿</t>
   </si>
   <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
@@ -1378,7 +1354,31 @@
     <t>购买</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>家，家庭</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>朋友（复数）</t>
+  </si>
+  <si>
     <t>a lot of</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>卖，销售（sell的过去式）</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>买（buy 的过去式）</t>
   </si>
 </sst>
 </file>
@@ -1391,19 +1391,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1870,142 +1864,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2321,7 +2312,7 @@
   <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2331,8 +2322,8 @@
     <col min="3" max="3" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4393,10 +4384,10 @@
         <v>367</v>
       </c>
       <c r="B188" t="s">
+        <v>70</v>
+      </c>
+      <c r="C188" t="s">
         <v>376</v>
-      </c>
-      <c r="C188" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4404,10 +4395,10 @@
         <v>367</v>
       </c>
       <c r="B189" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" t="s">
         <v>378</v>
-      </c>
-      <c r="C189" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4415,7 +4406,7 @@
         <v>367</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="C190" t="s">
         <v>380</v>
@@ -4657,10 +4648,10 @@
         <v>424</v>
       </c>
       <c r="B212" t="s">
-        <v>425</v>
+        <v>117</v>
       </c>
       <c r="C212" t="s">
-        <v>426</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4668,10 +4659,10 @@
         <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4679,10 +4670,10 @@
         <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4690,10 +4681,10 @@
         <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C215" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4701,10 +4692,10 @@
         <v>424</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C216" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4712,10 +4703,10 @@
         <v>424</v>
       </c>
       <c r="B217" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
       <c r="C217" t="s">
-        <v>118</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4781,7 +4772,7 @@
         <v>445</v>
       </c>
       <c r="C223" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4789,10 +4780,10 @@
         <v>424</v>
       </c>
       <c r="B224" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" t="s">
         <v>447</v>
-      </c>
-      <c r="C224" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4800,10 +4791,10 @@
         <v>424</v>
       </c>
       <c r="B225" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" t="s">
         <v>449</v>
-      </c>
-      <c r="C225" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
